--- a/llm-ovi.xlsx
+++ b/llm-ovi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC472845-078F-460D-ADA2-85C0699BED09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EED9943-C5BD-4DAC-9E82-D2F9799536E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <t>PREDNOSTI</t>
   </si>
   <si>
-    <t>MANE</t>
+    <t>NEDOSTACI</t>
   </si>
   <si>
     <t>Google Translate</t>
@@ -65,10 +65,10 @@
     <t>Cloud</t>
   </si>
   <si>
-    <t>veliki broj jezika</t>
-  </si>
-  <si>
-    <t>potreban pristup internetu, nije klasični LLM</t>
+    <t>veliki broj jezika, brzina</t>
+  </si>
+  <si>
+    <t>potreban pristup internetu, nije klasični LLM, !etichal AI</t>
   </si>
   <si>
     <t>DeepL</t>
@@ -77,10 +77,10 @@
     <t>Besplatna osnovna verzija/plaćanje (4.99e/month + usage based price ili custom pricing for business)</t>
   </si>
   <si>
-    <t>preciznost , kontekstualno razumijevanje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">potreban pristup internetu, manji broj jezika, nije podržan hrvatski </t>
+    <t xml:space="preserve">preciznost , kontekstualno razumijevanje, siguran u pogledu obrade podatka, omogućuje custom prevođenja </t>
+  </si>
+  <si>
+    <t>potreban pristup internetu, manji broj jezika, nije podržan hrvatski , besplatna verzija: 500.000 zakova/month</t>
   </si>
   <si>
     <t>google/flan-t5-base</t>
@@ -92,10 +92,10 @@
     <t>Cloud ili lokalno</t>
   </si>
   <si>
-    <t>open-source, finetuniran</t>
-  </si>
-  <si>
-    <t>nije preporučeno korištenje bez prethodne procjene sigurnosti (!etichal AI development)</t>
+    <t>open-source, finetuniran, za primanje uputa i "praćenje tijeka misli"</t>
+  </si>
+  <si>
+    <t>nije preporučeno korištenje bez prethodne procjene sigurnosti (!etichal AI)</t>
   </si>
   <si>
     <t>facebook/m2m100_1.2B</t>
@@ -104,7 +104,7 @@
     <t>velik broj jezika, bez engleskog kao posrednika</t>
   </si>
   <si>
-    <t>manja preciznost u pojedinim jezicima</t>
+    <t>manja preciznost u pojedinim jezicima, trenutno se ne može koristiti preko API-a nego samo lokalno</t>
   </si>
   <si>
     <t>facebook/nllb-200-3.3B</t>
@@ -113,7 +113,7 @@
     <t>velik broj jezika, visoka kvaliteta prijevoda</t>
   </si>
   <si>
-    <t>smanjena kvaliteta kod dužih tekstova, ne može se koristiti za službene prijevode</t>
+    <t>smanjena kvaliteta kod dužih tekstova, ne može se koristiti za službene prijevode, nije u potpunosti spreman za produkcijsku upotrebu</t>
   </si>
   <si>
     <t>GPT-4o</t>
@@ -152,7 +152,7 @@
     <t>Lokalno ili cloud</t>
   </si>
   <si>
-    <t>pre-trained i post-trained, jeftiniji od ostalih modela</t>
+    <t>jeftiniji od ostalih modela, pre-trained i post-trained, podržava više jezika u odnosu na chat</t>
   </si>
   <si>
     <t>nije konkretno namijenjen prevođenju pa kvaliteta prijevoda ne mora biti na dobroj razini</t>
@@ -161,7 +161,7 @@
     <t>DeepSeek V3 Chat</t>
   </si>
   <si>
-    <t>fine-tuned, jeftiniji od ostalih modela, optimiziran za dijalog i interakciju</t>
+    <t>jeftiniji od ostalih modela, fine-tuned, optimiziran za dijalog i interakciju</t>
   </si>
   <si>
     <t>Claude 3.5 Sonnet</t>
@@ -170,7 +170,7 @@
     <t>Plaćanje (3$ per million input tokens, 15$ per million output tokens)</t>
   </si>
   <si>
-    <t>preciznost, razumijevanje konteksta, složeni zadaci, etichal AI, može se koristiti za profesionalno prevođenje</t>
+    <t>preciznost, razumijevanje konteksta, složeni zadaci, etichal AI, može se koristiti za profesionalno prevođenje, podržava veći broj znakova od haiku</t>
   </si>
   <si>
     <t>nije namijenjen prevođenju, najskuplji u odnosu na prethodne modele, potreban prsitup internetu</t>
@@ -185,28 +185,10 @@
     <t>brzina, učinkovitost, cijena niža nego kod Sonneta, etichal AI, može se koristiti za profesionalno prevođenje</t>
   </si>
   <si>
-    <t>nije namijenjen prevođenju, potreban pristup internetu, ne podržava hrvatski</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MERGE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (ovih koji ima po dva)</t>
-    </r>
+    <t>nije namijenjen prevođenju, potreban pristup internetu</t>
+  </si>
+  <si>
+    <t>MERGE*</t>
   </si>
   <si>
     <t>mergekit biblioteka (methods: SLERP, TIES, DARE, Passthrough)</t>
@@ -225,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,12 +235,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -577,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -587,7 +563,7 @@
     <col min="2" max="2" width="89.7109375" customWidth="1"/>
     <col min="3" max="3" width="55.28515625" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="94.7109375" customWidth="1"/>
+    <col min="5" max="5" width="126.28515625" customWidth="1"/>
     <col min="6" max="6" width="138.85546875" customWidth="1"/>
   </cols>
   <sheetData>
